--- a/Raw data sets from the app/check2 hWG Q1 files/seed designed to be distributed at HH level.xlsx
+++ b/Raw data sets from the app/check2 hWG Q1 files/seed designed to be distributed at HH level.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edison New\Desktop\HWG Q1 Reporting 2025\Raw data sets from the app\check2 hWG Q1 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FBE3A6D-474A-41F8-A5BC-3334687D97B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551403DA-9612-4787-9830-004FA9134D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A01E11C5-EE22-44E5-99F2-25A7D8F33185}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="75">
   <si>
     <t xml:space="preserve">Country </t>
   </si>
@@ -258,13 +261,16 @@
   </si>
   <si>
     <t>Nnongo_A</t>
+  </si>
+  <si>
+    <t>Onions - Local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +300,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -352,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -397,6 +408,10 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,15 +746,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1D171-1533-4049-898D-BF23E33E9312}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="52.8">
+    <row r="1" spans="1:19" ht="52.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,8 +812,11 @@
       <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="26.4">
+      <c r="S1" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="26.4">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -850,8 +871,11 @@
       <c r="R2" s="16">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="26.4">
+      <c r="S2" s="18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="26.4">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -906,8 +930,11 @@
       <c r="R3" s="16">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="26.4">
+      <c r="S3" s="18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="26.4">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -962,8 +989,11 @@
       <c r="R4" s="16">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="26.4">
+      <c r="S4" s="18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="26.4">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1018,8 +1048,11 @@
       <c r="R5" s="16">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="39.6">
+      <c r="S5" s="18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="39.6">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1074,8 +1107,11 @@
       <c r="R6" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="26.4">
+      <c r="S6" s="18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="26.4">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1130,8 +1166,11 @@
       <c r="R7" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="26.4">
+      <c r="S7" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="26.4">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1186,8 +1225,11 @@
       <c r="R8" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="26.4">
+      <c r="S8" s="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="26.4">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1242,8 +1284,11 @@
       <c r="R9" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="26.4">
+      <c r="S9" s="18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="26.4">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1298,8 +1343,11 @@
       <c r="R10" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1402,11 @@
       <c r="R11" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="26.4">
+      <c r="S11" s="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="26.4">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1410,8 +1461,11 @@
       <c r="R12" s="16">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="26.4">
+      <c r="S12" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="26.4">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1466,8 +1520,11 @@
       <c r="R13" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1522,8 +1579,11 @@
       <c r="R14" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="26.4">
+      <c r="S14" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="26.4">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1578,8 +1638,11 @@
       <c r="R15" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="26.4">
+      <c r="S15" s="18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="26.4">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1634,8 +1697,11 @@
       <c r="R16" s="16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="26.4">
+      <c r="S16" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="26.4">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1690,8 +1756,11 @@
       <c r="R17" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="26.4">
+      <c r="S17" s="18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="26.4">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -1746,8 +1815,11 @@
       <c r="R18" s="16">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="26.4">
+      <c r="S18" s="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="26.4">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1802,8 +1874,11 @@
       <c r="R19" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1858,8 +1933,11 @@
       <c r="R20" s="16">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="39.6">
+      <c r="S20" s="18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="39.6">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1914,8 +1992,11 @@
       <c r="R21" s="16">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="26.4">
+      <c r="S21" s="18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="26.4">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -1970,8 +2051,11 @@
       <c r="R22" s="16">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="26.4">
+      <c r="S22" s="18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="26.4">
       <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
@@ -2026,8 +2110,11 @@
       <c r="R23" s="16">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="39.6">
+      <c r="S23" s="18">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="39.6">
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
@@ -2082,8 +2169,11 @@
       <c r="R24" s="16">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="26.4">
+      <c r="S24" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="26.4">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -2138,8 +2228,11 @@
       <c r="R25" s="16">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="26.4">
+      <c r="S25" s="18">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="26.4">
       <c r="A26" s="8" t="s">
         <v>18</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="R26" s="16">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="39.6">
+      <c r="S26" s="18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="39.6">
       <c r="A27" s="8" t="s">
         <v>18</v>
       </c>
@@ -2250,8 +2346,11 @@
       <c r="R27" s="16">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="8" t="s">
         <v>18</v>
       </c>
@@ -2306,8 +2405,11 @@
       <c r="R28" s="16">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="26.4">
+      <c r="S28" s="18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="26.4">
       <c r="A29" s="8" t="s">
         <v>18</v>
       </c>
@@ -2362,8 +2464,11 @@
       <c r="R29" s="16">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -2418,8 +2523,11 @@
       <c r="R30" s="16">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
@@ -2474,8 +2582,11 @@
       <c r="R31" s="16">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="26.4">
+      <c r="S31" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="26.4">
       <c r="A32" s="8" t="s">
         <v>18</v>
       </c>
@@ -2530,8 +2641,11 @@
       <c r="R32" s="16">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="26.4">
+      <c r="S32" s="18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="26.4">
       <c r="A33" s="8" t="s">
         <v>18</v>
       </c>
@@ -2586,8 +2700,11 @@
       <c r="R33" s="16">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="8" t="s">
         <v>18</v>
       </c>
@@ -2642,8 +2759,11 @@
       <c r="R34" s="16">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="26.4">
+      <c r="S34" s="18">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="26.4">
       <c r="A35" s="8" t="s">
         <v>18</v>
       </c>
@@ -2698,8 +2818,11 @@
       <c r="R35" s="16">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="26.4">
+      <c r="S35" s="18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="26.4">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -2754,8 +2877,11 @@
       <c r="R36" s="16">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="26.4">
+      <c r="S36" s="18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="26.4">
       <c r="A37" s="8" t="s">
         <v>18</v>
       </c>
@@ -2810,8 +2936,11 @@
       <c r="R37" s="16">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="26.4">
+      <c r="S37" s="18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="26.4">
       <c r="A38" s="8" t="s">
         <v>18</v>
       </c>
@@ -2866,8 +2995,11 @@
       <c r="R38" s="16">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="18">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="8" t="s">
         <v>18</v>
       </c>
@@ -2922,8 +3054,11 @@
       <c r="R39" s="16">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="8" t="s">
         <v>18</v>
       </c>
@@ -2978,8 +3113,11 @@
       <c r="R40" s="16">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="26.4">
+      <c r="S40" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="26.4">
       <c r="A41" s="8" t="s">
         <v>18</v>
       </c>
@@ -3034,8 +3172,11 @@
       <c r="R41" s="16">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="26.4">
+      <c r="S41" s="18">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="26.4">
       <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
@@ -3090,8 +3231,11 @@
       <c r="R42" s="16">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="26.4">
+      <c r="S42" s="18">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="26.4">
       <c r="A43" s="8" t="s">
         <v>18</v>
       </c>
@@ -3146,8 +3290,11 @@
       <c r="R43" s="16">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="26.4">
+      <c r="S43" s="18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="26.4">
       <c r="A44" s="8" t="s">
         <v>18</v>
       </c>
@@ -3202,8 +3349,12 @@
       <c r="R44" s="16">
         <v>73</v>
       </c>
+      <c r="S44" s="18">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{4CB1D171-1533-4049-898D-BF23E33E9312}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>